--- a/desguace/REDI.xlsx
+++ b/desguace/REDI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -576,14 +576,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>44683</v>
+        <v>44487</v>
       </c>
       <c r="F2" t="n">
-        <v>25079124</v>
+        <v>23983894</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>90</v>
+        <v>63.222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>90</v>
+        <v>63.222</v>
       </c>
       <c r="L2" t="n">
-        <v>856.25</v>
+        <v>559.63</v>
       </c>
       <c r="M2" t="n">
-        <v>829.8</v>
+        <v>582.907</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>REDI007573</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -637,12 +637,12 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -662,14 +662,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>44683</v>
+        <v>44481</v>
       </c>
       <c r="F3" t="n">
-        <v>25079124</v>
+        <v>23983894</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>158.055</v>
+        <v>120</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>158.055</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>1344.63</v>
+        <v>1056</v>
       </c>
       <c r="M3" t="n">
-        <v>1457.267</v>
+        <v>1106.4</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>REDI007573</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
@@ -723,12 +723,12 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -748,14 +748,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>44694</v>
+        <v>44480</v>
       </c>
       <c r="F4" t="n">
-        <v>25079124</v>
+        <v>23983894</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9</v>
+        <v>528</v>
       </c>
       <c r="M4" t="n">
-        <v>829.8</v>
+        <v>553.2</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>REDI007573</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -809,12 +809,12 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -834,14 +834,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>44683</v>
+        <v>44477</v>
       </c>
       <c r="F5" t="n">
-        <v>25079124</v>
+        <v>23983894</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>94.833</v>
+        <v>60</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>94.833</v>
+        <v>60</v>
       </c>
       <c r="L5" t="n">
-        <v>831.04</v>
+        <v>533.04</v>
       </c>
       <c r="M5" t="n">
-        <v>874.36</v>
+        <v>553.2</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
@@ -887,7 +887,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>REDI007573</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -895,12 +895,12 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -920,41 +920,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>44683</v>
+        <v>44476</v>
       </c>
       <c r="F6" t="n">
-        <v>25079124</v>
+        <v>23983894</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31010776</t>
+          <t>31003986</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GAS PROPANO 10KG</t>
+          <t>OXIGENO IND.</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>63.222</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>63.222</v>
       </c>
       <c r="L6" t="n">
-        <v>171</v>
+        <v>564.3200000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>161.19</v>
+        <v>582.907</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>REDI007573</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -981,12 +981,12 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1006,41 +1006,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>44683</v>
+        <v>44466</v>
       </c>
       <c r="F7" t="n">
-        <v>25079124</v>
+        <v>23983894</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31010776</t>
+          <t>31003986</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>GAS PROPANO 10KG</t>
+          <t>OXIGENO IND.</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>42.148</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>42.148</v>
       </c>
       <c r="L7" t="n">
-        <v>171</v>
+        <v>374.65</v>
       </c>
       <c r="M7" t="n">
-        <v>161.19</v>
+        <v>388.605</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>REDI007573</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
@@ -1067,12 +1067,12 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1092,14 +1092,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>44704</v>
+        <v>44475</v>
       </c>
       <c r="F8" t="n">
-        <v>25079124</v>
+        <v>23983894</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>42.148</v>
+        <v>63.222</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1120,13 +1120,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>42.148</v>
+        <v>63.222</v>
       </c>
       <c r="L8" t="n">
-        <v>355.78</v>
+        <v>564.3200000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>388.605</v>
+        <v>582.907</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>REDI007573</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1153,12 +1153,12 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1178,14 +1178,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E9" s="3" t="n">
-        <v>45491</v>
+        <v>44489</v>
       </c>
       <c r="F9" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>53.73</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>53.73</v>
+        <v>107.46</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1239,12 +1239,12 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1264,41 +1264,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>45490</v>
+        <v>44475</v>
       </c>
       <c r="F10" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31003986</t>
+          <t>31010776</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>OXIGENO IND.</t>
+          <t>GAS PROPANO 10KG</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1907.73</v>
+        <v>192</v>
       </c>
       <c r="M10" t="n">
-        <v>1936.2</v>
+        <v>214.92</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1325,12 +1325,12 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1350,41 +1350,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>45474</v>
+        <v>44460</v>
       </c>
       <c r="F11" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31010776</t>
+          <t>31003986</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>GAS PROPANO 10KG</t>
+          <t>OXIGENO IND.</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="L11" t="n">
-        <v>161.19</v>
+        <v>353</v>
       </c>
       <c r="M11" t="n">
-        <v>161.19</v>
+        <v>368.8</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1411,12 +1411,12 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1436,14 +1436,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v>45491</v>
+        <v>44471</v>
       </c>
       <c r="F12" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1464,13 +1464,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L12" t="n">
-        <v>1791.82</v>
+        <v>528</v>
       </c>
       <c r="M12" t="n">
-        <v>1844</v>
+        <v>553.2</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1497,12 +1497,12 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1522,41 +1522,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>45488</v>
+        <v>44460</v>
       </c>
       <c r="F13" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31003986</t>
+          <t>31010776</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>OXIGENO IND.</t>
+          <t>GAS PROPANO 10KG</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>737.78</v>
+        <v>96</v>
       </c>
       <c r="M13" t="n">
-        <v>737.6</v>
+        <v>107.46</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1583,12 +1583,12 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1608,41 +1608,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>45491</v>
+        <v>44466</v>
       </c>
       <c r="F14" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31003986</t>
+          <t>31010776</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>OXIGENO IND.</t>
+          <t>GAS PROPANO 10KG</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>720.23</v>
+        <v>96</v>
       </c>
       <c r="M14" t="n">
-        <v>737.6</v>
+        <v>107.46</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1669,12 +1669,12 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1694,14 +1694,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v>45474</v>
+        <v>44456</v>
       </c>
       <c r="F15" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>161.19</v>
+        <v>96</v>
       </c>
       <c r="M15" t="n">
-        <v>161.19</v>
+        <v>107.46</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1755,12 +1755,12 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1780,14 +1780,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
-        <v>45488</v>
+        <v>44471</v>
       </c>
       <c r="F16" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1808,13 +1808,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>161.19</v>
+        <v>96</v>
       </c>
       <c r="M16" t="n">
-        <v>161.19</v>
+        <v>107.46</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1841,12 +1841,12 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1866,14 +1866,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>45490</v>
+        <v>44477</v>
       </c>
       <c r="F17" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>161.19</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
         <v>161.19</v>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1927,12 +1927,12 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1952,41 +1952,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>45474</v>
+        <v>44481</v>
       </c>
       <c r="F18" t="n">
-        <v>28149504</v>
+        <v>23983894</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31003986</t>
+          <t>31010776</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>OXIGENO IND.</t>
+          <t>GAS PROPANO 10KG</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>735.6900000000001</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
-        <v>737.6</v>
+        <v>214.92</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>REDI015415</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2013,12 +2013,12 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5012196</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2038,41 +2038,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Desmontaje de equipos activos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>45474</v>
+        <v>44456</v>
       </c>
       <c r="F19" t="n">
-        <v>28149508</v>
+        <v>23983894</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31013857</t>
+          <t>31003986</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SOLDADURA CELLOCORD 6011 4.00MM 25KG</t>
+          <t>OXIGENO IND.</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>40.537</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>40.537</v>
       </c>
       <c r="L19" t="n">
-        <v>45</v>
+        <v>357.73</v>
       </c>
       <c r="M19" t="n">
-        <v>44.76</v>
+        <v>373.751</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>REDI015180</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2099,12 +2099,12 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5012196</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2124,14 +2124,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Desmontaje de equipos activos</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>45474</v>
+        <v>44495</v>
       </c>
       <c r="F20" t="n">
-        <v>28149508</v>
+        <v>23983894</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>7.852</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>7.852</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>92.2</v>
+        <v>72.395</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>REDI015180</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2185,12 +2185,12 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -2200,51 +2200,51 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5012198</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Limp sala de bomba y sala de máquina</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E21" s="3" t="n">
-        <v>45484</v>
+        <v>44491</v>
       </c>
       <c r="F21" t="n">
-        <v>28149710</v>
+        <v>23983894</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>32005362</t>
+          <t>31003986</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TRAPO IND.</t>
+          <t>OXIGENO IND.</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L21" t="n">
-        <v>28.8</v>
+        <v>529.55</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>553.2</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>REDI015354</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2271,12 +2271,12 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -2286,51 +2286,51 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5012198</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Limp sala de bomba y sala de máquina</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>45484</v>
+        <v>44489</v>
       </c>
       <c r="F22" t="n">
-        <v>28149710</v>
+        <v>23983894</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>32005495</t>
+          <t>31003986</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>DETERGENTE IND. A:32022290</t>
+          <t>OXIGENO IND.</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>63.222</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>63.222</v>
       </c>
       <c r="L22" t="n">
-        <v>23.6</v>
+        <v>559.62</v>
       </c>
       <c r="M22" t="n">
-        <v>23.6</v>
+        <v>582.907</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>REDI015354</t>
+          <t>REDI005813</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2357,10 +2357,3364 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
+          <t>E/P. CAPRICORNIO 7</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5004238</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Limp Sentina sala de máquinas</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23983895</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>32005362</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TRAPO IND.</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>REDI004175</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 7</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5004238</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Limp Sentina sala de máquinas</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23983895</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>32005495</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>DETERGENTE IND. A:32022290</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M24" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>REDI004175</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 7</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5004238</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0030</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Limp Pique proa</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23983895</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>32005362</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TRAPO IND.</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>REDI004227</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 7</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5004238</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0030</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Limp Pique proa</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23983895</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>32005495</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>DETERGENTE IND. A:32022290</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>REDI004227</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 7</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5004238</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0040</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Limp Lazareto</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="F27" t="n">
+        <v>23983895</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>32005495</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>DETERGENTE IND. A:32022290</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>REDI004228</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 7</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5004238</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0040</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Limp Lazareto</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23983895</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>32005362</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TRAPO IND.</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>REDI004228</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 7</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>86</v>
+      </c>
+      <c r="M29" t="n">
+        <v>107.46</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="F30" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>40</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>40</v>
+      </c>
+      <c r="L30" t="n">
+        <v>352</v>
+      </c>
+      <c r="M30" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>44471</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>60</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>60</v>
+      </c>
+      <c r="L31" t="n">
+        <v>528</v>
+      </c>
+      <c r="M31" t="n">
+        <v>553.2</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>44453</v>
+      </c>
+      <c r="F32" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>40</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>40</v>
+      </c>
+      <c r="L32" t="n">
+        <v>353</v>
+      </c>
+      <c r="M32" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>44453</v>
+      </c>
+      <c r="F33" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>192</v>
+      </c>
+      <c r="M33" t="n">
+        <v>214.92</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>44466</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>80</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>80</v>
+      </c>
+      <c r="L34" t="n">
+        <v>708</v>
+      </c>
+      <c r="M34" t="n">
+        <v>737.6</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F35" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>101.611</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>101.611</v>
+      </c>
+      <c r="L35" t="n">
+        <v>903.21</v>
+      </c>
+      <c r="M35" t="n">
+        <v>936.853</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F36" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>288</v>
+      </c>
+      <c r="M36" t="n">
+        <v>322.38</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>44467</v>
+      </c>
+      <c r="F37" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>80</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>80</v>
+      </c>
+      <c r="L37" t="n">
+        <v>707.49</v>
+      </c>
+      <c r="M37" t="n">
+        <v>737.6</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F38" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>123.222</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>123.222</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1089.97</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1136.107</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5004259</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Desguace de EP en módulos</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>44466</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24040384</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>192</v>
+      </c>
+      <c r="M39" t="n">
+        <v>214.92</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>REDI005621</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>ADITAMENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5004260</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Limp Sentina sala de máquinas</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24040386</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>32005362</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TRAPO IND.</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>REDI004229</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>E/P. CAPRICORNIO 9</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25079124</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>90</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>90</v>
+      </c>
+      <c r="L41" t="n">
+        <v>856.25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>829.8</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>REDI007573</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="F42" t="n">
+        <v>25079124</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>171</v>
+      </c>
+      <c r="M42" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>REDI007573</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="F43" t="n">
+        <v>25079124</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>94.833</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>94.833</v>
+      </c>
+      <c r="L43" t="n">
+        <v>831.04</v>
+      </c>
+      <c r="M43" t="n">
+        <v>874.36</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>REDI007573</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>44694</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25079124</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>90</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>90</v>
+      </c>
+      <c r="L44" t="n">
+        <v>832.9</v>
+      </c>
+      <c r="M44" t="n">
+        <v>829.8</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>REDI007573</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="F45" t="n">
+        <v>25079124</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>158.055</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>158.055</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1344.63</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1457.267</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>REDI007573</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>44704</v>
+      </c>
+      <c r="F46" t="n">
+        <v>25079124</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>42.148</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>42.148</v>
+      </c>
+      <c r="L46" t="n">
+        <v>355.78</v>
+      </c>
+      <c r="M46" t="n">
+        <v>388.605</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>REDI007573</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25079124</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>171</v>
+      </c>
+      <c r="M47" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>REDI007573</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F48" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="M48" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
           <t>CHATA FERROLES 3 (DESGUACE)</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="M49" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="M50" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>45488</v>
+      </c>
+      <c r="F51" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="M51" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F52" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>80</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>80</v>
+      </c>
+      <c r="L52" t="n">
+        <v>735.6900000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>737.6</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="F53" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>200</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>200</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1791.82</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1844</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="F54" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>210</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>210</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1907.73</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1936.2</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>80</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>80</v>
+      </c>
+      <c r="L55" t="n">
+        <v>720.23</v>
+      </c>
+      <c r="M55" t="n">
+        <v>737.6</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>45488</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>80</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>80</v>
+      </c>
+      <c r="L56" t="n">
+        <v>737.78</v>
+      </c>
+      <c r="M56" t="n">
+        <v>737.6</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="F57" t="n">
+        <v>28149504</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>31010776</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GAS PROPANO 10KG</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="M57" t="n">
+        <v>161.19</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>REDI015415</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="b">
+        <v>0</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5012196</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Desmontaje de equipos activos</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F58" t="n">
+        <v>28149508</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>31013857</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>SOLDADURA CELLOCORD 6011 4.00MM 25KG</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>45</v>
+      </c>
+      <c r="M58" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>REDI015180</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="b">
+        <v>0</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5012196</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Desmontaje de equipos activos</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28149508</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>31003986</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>OXIGENO IND.</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>10</v>
+      </c>
+      <c r="L59" t="n">
+        <v>92.22</v>
+      </c>
+      <c r="M59" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>REDI015180</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="b">
+        <v>0</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5012198</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Limp sala de bomba y sala de máquina</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28149710</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>32005495</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>DETERGENTE IND. A:32022290</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M60" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>REDI015354</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="b">
+        <v>0</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5012198</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Limp sala de bomba y sala de máquina</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28149710</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>32005362</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TRAPO IND.</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>12</v>
+      </c>
+      <c r="L61" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="M61" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>@01@</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>REDI015354</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
         <is>
           <t>CASCO</t>
         </is>
